--- a/biology/Botanique/Alta_Langa_(DOC)/Alta_Langa_(DOC).xlsx
+++ b/biology/Botanique/Alta_Langa_(DOC)/Alta_Langa_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Alta Langa est un vin blanc effervescent italien de la région Piémont doté d'une appellation DOC depuis le 31 octobre 2002. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Cuneo province d'Alexandrie et province d'Asti dans 142 communes :
 Province d'Alexandrie
@@ -551,7 +565,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>couleur : jaune paille avec une mousse légère et des fines bulles.
 odeur : fruité et complexe.
@@ -583,7 +599,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la vigne et du vin   Portail du Piémont                    </t>
